--- a/nop-biz/src/test/resources/io/nop/biz/impl/test_imp4.test.xlsx
+++ b/nop-biz/src/test/resources/io/nop/biz/impl/test_imp4.test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\nop-entropy\nop-biz\src\test\resources\io\nop\biz\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\io\nop\biz\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B218E471-3788-4E02-A88D-AD79D4250EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7FB29-65F0-4F97-953D-F72449849614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>L0指标</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A2-1-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A2-2-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,10 +106,6 @@
   </si>
   <si>
     <t>A2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2-4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -228,11 +216,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -246,7 +234,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -706,6 +694,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,15 +721,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,27 +1003,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="32"/>
+    <row r="1" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -1045,13 +1033,13 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="25"/>
       <c r="C2" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -1061,13 +1049,13 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="25"/>
       <c r="C3" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -1077,11 +1065,11 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="32"/>
+    <row r="4" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="25"/>
       <c r="C4" s="22">
         <v>202301</v>
       </c>
@@ -1093,35 +1081,35 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.8" thickBot="1">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>0</v>
@@ -1136,22 +1124,22 @@
         <v>3</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.2">
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -1177,7 +1165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.2">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="19">
         <v>2</v>
       </c>
@@ -1203,13 +1191,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.2">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
@@ -1229,14 +1217,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="19">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
@@ -1255,7 +1243,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.2">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="19">
         <v>5</v>
       </c>
@@ -1263,7 +1251,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>5</v>
@@ -1281,7 +1269,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.2">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="19">
         <v>6</v>
       </c>
@@ -1289,7 +1277,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>5</v>
@@ -1307,7 +1295,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.2">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="19">
         <v>7</v>
       </c>
@@ -1315,7 +1303,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>5</v>
@@ -1333,14 +1321,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.2">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="19">
         <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
@@ -1359,7 +1347,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.2">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="19">
         <v>9</v>
       </c>
@@ -1367,7 +1355,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>5</v>
@@ -1385,7 +1373,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.2">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>10</v>
       </c>
@@ -1393,7 +1381,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
@@ -1411,14 +1399,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.2">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="19">
         <v>11</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
@@ -1437,13 +1425,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.2">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="19">
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="8"/>
@@ -1463,14 +1451,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.2">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="19">
         <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
@@ -1489,7 +1477,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.2">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="19">
         <v>14</v>
       </c>
@@ -1497,7 +1485,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
@@ -1515,7 +1503,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.2">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="19">
         <v>15</v>
       </c>
@@ -1523,7 +1511,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>5</v>
@@ -1541,7 +1529,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.2">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="19">
         <v>16</v>
       </c>
@@ -1549,7 +1537,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>5</v>
@@ -1567,14 +1555,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.2">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="19">
         <v>17</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
@@ -1593,13 +1581,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.2">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="19">
         <v>18</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1619,13 +1607,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.8" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="20">
         <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -1668,22 +1656,22 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1694,12 +1682,12 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" ht="16.2">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1710,12 +1698,12 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="16.2">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1726,12 +1714,12 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="16.2">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1742,48 +1730,49 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="30"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="23" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="23" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="23" t="s">
+      <c r="B9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="23" t="s">
+      <c r="B10" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/nop-biz/src/test/resources/io/nop/biz/impl/test_imp4.test.xlsx
+++ b/nop-biz/src/test/resources/io/nop/biz/impl/test_imp4.test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\io\nop\biz\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7FB29-65F0-4F97-953D-F72449849614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFC4E2B-5D51-4459-82D7-AAFD76A88DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,6 +216,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1015,6 +1021,7 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="16.58203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
@@ -1152,7 +1159,7 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="33">
         <v>100</v>
       </c>
       <c r="H8" s="2">
